--- a/data/pca/factorExposure/factorExposure_2017-10-06.xlsx
+++ b/data/pca/factorExposure/factorExposure_2017-10-06.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="107">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="109">
   <si>
     <t>factor1</t>
   </si>
@@ -26,6 +26,12 @@
   </si>
   <si>
     <t>factor4</t>
+  </si>
+  <si>
+    <t>factor5</t>
+  </si>
+  <si>
+    <t>factor6</t>
   </si>
   <si>
     <t>Constellation software inc/can</t>
@@ -692,13 +698,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E104"/>
+  <dimension ref="A1:G104"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -711,61 +717,85 @@
       <c r="E1" s="1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:5">
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
       <c r="A2" s="1" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B2">
-        <v>0.02387886462258878</v>
+        <v>0.01263542750590688</v>
       </c>
       <c r="C2">
-        <v>0.00382564436234504</v>
+        <v>-0.03996263152438066</v>
       </c>
       <c r="D2">
-        <v>-0.01622589721400493</v>
+        <v>-0.02885149761995245</v>
       </c>
       <c r="E2">
-        <v>0.0142494260240265</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5">
+        <v>-0.02714328563031362</v>
+      </c>
+      <c r="F2">
+        <v>0.02350734788205165</v>
+      </c>
+      <c r="G2">
+        <v>0.02500737274002764</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
       <c r="A3" s="1" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B3">
-        <v>0.01234698925578419</v>
+        <v>0.04901295106660249</v>
       </c>
       <c r="C3">
-        <v>0.04754654828609475</v>
+        <v>-0.07805234010399061</v>
       </c>
       <c r="D3">
-        <v>-0.01839194565187336</v>
+        <v>-0.01484761901586456</v>
       </c>
       <c r="E3">
-        <v>0.01353263718497944</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5">
+        <v>-0.08498851763293679</v>
+      </c>
+      <c r="F3">
+        <v>0.06893509015629851</v>
+      </c>
+      <c r="G3">
+        <v>0.07240915285066696</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
       <c r="A4" s="1" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B4">
-        <v>0.02190898869210682</v>
+        <v>0.05750837059508882</v>
       </c>
       <c r="C4">
-        <v>0.01862484706698292</v>
+        <v>-0.0615572186140436</v>
       </c>
       <c r="D4">
-        <v>-0.06303094252455346</v>
+        <v>-0.02247594133389442</v>
       </c>
       <c r="E4">
-        <v>-0.01245364514764592</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5">
+        <v>-0.01063438560851335</v>
+      </c>
+      <c r="F4">
+        <v>0.005610116477295973</v>
+      </c>
+      <c r="G4">
+        <v>0.04922198811488695</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
       <c r="A5" s="1" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -779,163 +809,223 @@
       <c r="E5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:5">
+      <c r="F5">
+        <v>0</v>
+      </c>
+      <c r="G5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
       <c r="A6" s="1" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B6">
-        <v>0.01517263420940578</v>
+        <v>0.03299967407874518</v>
       </c>
       <c r="C6">
-        <v>0.02402815341683718</v>
+        <v>-0.05285852177312175</v>
       </c>
       <c r="D6">
-        <v>-0.08391580440626178</v>
+        <v>-0.01596626846840633</v>
       </c>
       <c r="E6">
-        <v>0.001695352026591128</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5">
+        <v>-0.01086973263248061</v>
+      </c>
+      <c r="F6">
+        <v>0.007285229389978029</v>
+      </c>
+      <c r="G6">
+        <v>0.02878464793348737</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
       <c r="A7" s="1" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B7">
-        <v>0.01027263867890982</v>
+        <v>0.02008303880795636</v>
       </c>
       <c r="C7">
-        <v>0.004749827582634225</v>
+        <v>-0.03691069598586369</v>
       </c>
       <c r="D7">
-        <v>-0.04033509108060371</v>
+        <v>-0.01272532199240092</v>
       </c>
       <c r="E7">
-        <v>-0.06803287197047311</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5">
+        <v>0.01150787705238156</v>
+      </c>
+      <c r="F7">
+        <v>0.002742898443249983</v>
+      </c>
+      <c r="G7">
+        <v>0.07977321492631455</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
       <c r="A8" s="1" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B8">
-        <v>-0.0001883134647177413</v>
+        <v>-0.002528946076112144</v>
       </c>
       <c r="C8">
-        <v>-0.009170268601313968</v>
+        <v>-0.01915509080973317</v>
       </c>
       <c r="D8">
-        <v>-0.01676105758948349</v>
+        <v>-0.004018441142096212</v>
       </c>
       <c r="E8">
-        <v>-0.00516505403498744</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5">
+        <v>-0.02216070927709696</v>
+      </c>
+      <c r="F8">
+        <v>0.02183712084224155</v>
+      </c>
+      <c r="G8">
+        <v>0.02359375806643058</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7">
       <c r="A9" s="1" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B9">
-        <v>0.01453849331010847</v>
+        <v>0.02957930326065015</v>
       </c>
       <c r="C9">
-        <v>0.01832044181910867</v>
+        <v>-0.04280258406815334</v>
       </c>
       <c r="D9">
-        <v>-0.04555486191387947</v>
+        <v>-0.0158752611891774</v>
       </c>
       <c r="E9">
-        <v>-0.002408769729317551</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5">
+        <v>-0.01125613686880782</v>
+      </c>
+      <c r="F9">
+        <v>0.01380094862109148</v>
+      </c>
+      <c r="G9">
+        <v>0.0400069388277551</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7">
       <c r="A10" s="1" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B10">
-        <v>0.009957728080509596</v>
+        <v>0.09264513872336863</v>
       </c>
       <c r="C10">
-        <v>0.1469958799054541</v>
+        <v>0.1844476582885407</v>
       </c>
       <c r="D10">
-        <v>0.1337036222433057</v>
+        <v>0.01879349597084601</v>
       </c>
       <c r="E10">
-        <v>-0.01979986252520864</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5">
+        <v>-0.01488292404567165</v>
+      </c>
+      <c r="F10">
+        <v>-0.01200918040830497</v>
+      </c>
+      <c r="G10">
+        <v>0.03978506613442527</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7">
       <c r="A11" s="1" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B11">
-        <v>0.0002884364295210886</v>
+        <v>0.03394552257516428</v>
       </c>
       <c r="C11">
-        <v>0.00749000347633894</v>
+        <v>-0.05330088570835768</v>
       </c>
       <c r="D11">
-        <v>-0.04504872712484862</v>
+        <v>-0.001819027669498844</v>
       </c>
       <c r="E11">
-        <v>0.01280020920976978</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5">
+        <v>-0.001169716129479802</v>
+      </c>
+      <c r="F11">
+        <v>0.01923290939474454</v>
+      </c>
+      <c r="G11">
+        <v>0.02229221380029649</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7">
       <c r="A12" s="1" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B12">
-        <v>0.005470977813078737</v>
+        <v>0.03240681853308013</v>
       </c>
       <c r="C12">
-        <v>0.01512819158742745</v>
+        <v>-0.04471947773231294</v>
       </c>
       <c r="D12">
-        <v>-0.04754937740908134</v>
+        <v>-0.005774051933940129</v>
       </c>
       <c r="E12">
-        <v>0.003644398611333965</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5">
+        <v>0.004654692788294717</v>
+      </c>
+      <c r="F12">
+        <v>0.00437912523831863</v>
+      </c>
+      <c r="G12">
+        <v>0.02667792986259896</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7">
       <c r="A13" s="1" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="B13">
-        <v>0.02153398911300354</v>
+        <v>0.01421876456265958</v>
       </c>
       <c r="C13">
-        <v>0.01612212825904051</v>
+        <v>-0.03264339399579613</v>
       </c>
       <c r="D13">
-        <v>-0.01239270239128579</v>
+        <v>-0.02485128463597117</v>
       </c>
       <c r="E13">
-        <v>0.009588806841959556</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5">
+        <v>-0.01996044813182525</v>
+      </c>
+      <c r="F13">
+        <v>0.01504602391626852</v>
+      </c>
+      <c r="G13">
+        <v>0.0335951005165834</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7">
       <c r="A14" s="1" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="B14">
-        <v>0.007014962017029295</v>
+        <v>0.009608173141995715</v>
       </c>
       <c r="C14">
-        <v>0.01177162783634081</v>
+        <v>-0.02683130104123766</v>
       </c>
       <c r="D14">
-        <v>-0.01854778079174555</v>
+        <v>-0.008513621265999622</v>
       </c>
       <c r="E14">
-        <v>-0.009101530157546469</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5">
+        <v>0.006183986286763198</v>
+      </c>
+      <c r="F14">
+        <v>-0.001422512047859767</v>
+      </c>
+      <c r="G14">
+        <v>0.04004921228507199</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7">
       <c r="A15" s="1" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B15">
         <v>0</v>
@@ -949,27 +1039,39 @@
       <c r="E15">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:5">
+      <c r="F15">
+        <v>0</v>
+      </c>
+      <c r="G15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7">
       <c r="A16" s="1" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="B16">
-        <v>0.0006732123979582068</v>
+        <v>0.03210435506258272</v>
       </c>
       <c r="C16">
-        <v>0.01220114239839114</v>
+        <v>-0.04306332141596996</v>
       </c>
       <c r="D16">
-        <v>-0.05173827842395244</v>
+        <v>-0.001292655866603704</v>
       </c>
       <c r="E16">
-        <v>0.007137483349296782</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5">
+        <v>-0.004068664406096999</v>
+      </c>
+      <c r="F16">
+        <v>0.009020193121189225</v>
+      </c>
+      <c r="G16">
+        <v>0.02466719613011862</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7">
       <c r="A17" s="1" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="B17">
         <v>0</v>
@@ -983,10 +1085,16 @@
       <c r="E17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:5">
+      <c r="F17">
+        <v>0</v>
+      </c>
+      <c r="G17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7">
       <c r="A18" s="1" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="B18">
         <v>0</v>
@@ -1000,61 +1108,85 @@
       <c r="E18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:5">
+      <c r="F18">
+        <v>0</v>
+      </c>
+      <c r="G18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7">
       <c r="A19" s="1" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="B19">
-        <v>0.01321427241182766</v>
+        <v>0.0284918209152324</v>
       </c>
       <c r="C19">
-        <v>0.02790384993319003</v>
+        <v>-0.04934150784886508</v>
       </c>
       <c r="D19">
-        <v>-0.02908034059805702</v>
+        <v>-0.01565668022151872</v>
       </c>
       <c r="E19">
-        <v>-0.002263005959105393</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5">
+        <v>-0.05085797200824249</v>
+      </c>
+      <c r="F19">
+        <v>0.03007934943644306</v>
+      </c>
+      <c r="G19">
+        <v>0.04771038789878176</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7">
       <c r="A20" s="1" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B20">
-        <v>0.01034489363316009</v>
+        <v>0.01291822406594331</v>
       </c>
       <c r="C20">
-        <v>0.006037041940997808</v>
+        <v>-0.03450338990662475</v>
       </c>
       <c r="D20">
-        <v>-0.01467596067562279</v>
+        <v>-0.01300483506349497</v>
       </c>
       <c r="E20">
-        <v>0.002732668108650883</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5">
+        <v>-0.02197453618933717</v>
+      </c>
+      <c r="F20">
+        <v>-0.001492736681453398</v>
+      </c>
+      <c r="G20">
+        <v>0.0384077176434373</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7">
       <c r="A21" s="1" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="B21">
-        <v>0.01392538475762217</v>
+        <v>0.01673239147835684</v>
       </c>
       <c r="C21">
-        <v>0.03750473131314633</v>
+        <v>-0.03486251914746185</v>
       </c>
       <c r="D21">
-        <v>-0.01895835754317955</v>
+        <v>-0.01600774185242124</v>
       </c>
       <c r="E21">
-        <v>-0.017975742023358</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5">
+        <v>-0.03001302602562944</v>
+      </c>
+      <c r="F21">
+        <v>0.01027596005269911</v>
+      </c>
+      <c r="G21">
+        <v>0.06011554547383177</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7">
       <c r="A22" s="1" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="B22">
         <v>0</v>
@@ -1068,10 +1200,16 @@
       <c r="E22">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="1:5">
+      <c r="F22">
+        <v>0</v>
+      </c>
+      <c r="G22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7">
       <c r="A23" s="1" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="B23">
         <v>0</v>
@@ -1085,61 +1223,85 @@
       <c r="E23">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="1:5">
+      <c r="F23">
+        <v>0</v>
+      </c>
+      <c r="G23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7">
       <c r="A24" s="1" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="B24">
-        <v>0.004881986215937137</v>
+        <v>0.02655437571146312</v>
       </c>
       <c r="C24">
-        <v>0.008054076753530986</v>
+        <v>-0.04592766454538999</v>
       </c>
       <c r="D24">
-        <v>-0.04550129887543133</v>
+        <v>-0.006599336343937797</v>
       </c>
       <c r="E24">
-        <v>0.007336085651856071</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5">
+        <v>0.00026868778592973</v>
+      </c>
+      <c r="F24">
+        <v>0.01551254919583081</v>
+      </c>
+      <c r="G24">
+        <v>0.02645622639335794</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7">
       <c r="A25" s="1" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="B25">
-        <v>0.01111235170673718</v>
+        <v>0.04318563349531539</v>
       </c>
       <c r="C25">
-        <v>0.02416113782128847</v>
+        <v>-0.05325021026532047</v>
       </c>
       <c r="D25">
-        <v>-0.04414965018457849</v>
+        <v>-0.01051873557580961</v>
       </c>
       <c r="E25">
-        <v>0.006373808315129356</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5">
+        <v>0.007397389449489132</v>
+      </c>
+      <c r="F25">
+        <v>0.009557550311046437</v>
+      </c>
+      <c r="G25">
+        <v>0.03201217503108016</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7">
       <c r="A26" s="1" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="B26">
-        <v>0.02258457377069429</v>
+        <v>0.0113596588891557</v>
       </c>
       <c r="C26">
-        <v>0.007616136513721732</v>
+        <v>-0.008958028158067646</v>
       </c>
       <c r="D26">
-        <v>0.003775246150407548</v>
+        <v>-0.02366575030535984</v>
       </c>
       <c r="E26">
-        <v>-0.00791344909700278</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5">
+        <v>-0.006478063804402331</v>
+      </c>
+      <c r="F26">
+        <v>0.002605451297639977</v>
+      </c>
+      <c r="G26">
+        <v>0.03154307633044839</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7">
       <c r="A27" s="1" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B27">
         <v>0</v>
@@ -1153,129 +1315,177 @@
       <c r="E27">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:5">
+      <c r="F27">
+        <v>0</v>
+      </c>
+      <c r="G27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7">
       <c r="A28" s="1" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="B28">
-        <v>0.02786642604451221</v>
+        <v>0.1171748797740816</v>
       </c>
       <c r="C28">
-        <v>0.2181339785615441</v>
+        <v>0.2243160406676765</v>
       </c>
       <c r="D28">
-        <v>0.1882016948961621</v>
+        <v>0.009637350635430766</v>
       </c>
       <c r="E28">
-        <v>-0.03148110994075042</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5">
+        <v>-0.002893478438009808</v>
+      </c>
+      <c r="F28">
+        <v>-0.01137472788938031</v>
+      </c>
+      <c r="G28">
+        <v>0.05861044930085503</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7">
       <c r="A29" s="1" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="B29">
-        <v>0.007309553874763961</v>
+        <v>0.01434044543684398</v>
       </c>
       <c r="C29">
-        <v>0.01724802075740888</v>
+        <v>-0.02121247210424414</v>
       </c>
       <c r="D29">
-        <v>-0.01503367138466325</v>
+        <v>-0.007236973874996347</v>
       </c>
       <c r="E29">
-        <v>-0.004923363492566692</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5">
+        <v>0.007655247080577261</v>
+      </c>
+      <c r="F29">
+        <v>-0.01072939029311528</v>
+      </c>
+      <c r="G29">
+        <v>0.02996682243761446</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7">
       <c r="A30" s="1" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="B30">
-        <v>0.02306984436176125</v>
+        <v>0.04599011349190296</v>
       </c>
       <c r="C30">
-        <v>0.003696820623941337</v>
+        <v>-0.0680955194062622</v>
       </c>
       <c r="D30">
-        <v>-0.0646651858582788</v>
+        <v>-0.02712069031227626</v>
       </c>
       <c r="E30">
-        <v>0.06194010459530311</v>
-      </c>
-    </row>
-    <row r="31" spans="1:5">
+        <v>-0.03278724316713872</v>
+      </c>
+      <c r="F30">
+        <v>0.04676331106814117</v>
+      </c>
+      <c r="G30">
+        <v>0.007506914132901269</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7">
       <c r="A31" s="1" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="B31">
-        <v>0.007185173820560936</v>
+        <v>0.04527794017582781</v>
       </c>
       <c r="C31">
-        <v>0.04793318093802867</v>
+        <v>-0.0316235292033681</v>
       </c>
       <c r="D31">
-        <v>-0.04132606727237836</v>
+        <v>-0.003228210887733248</v>
       </c>
       <c r="E31">
-        <v>-0.002357630231832996</v>
-      </c>
-    </row>
-    <row r="32" spans="1:5">
+        <v>0.007468419336142134</v>
+      </c>
+      <c r="F31">
+        <v>-0.03714047895394785</v>
+      </c>
+      <c r="G31">
+        <v>0.02736046887807437</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7">
       <c r="A32" s="1" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="B32">
-        <v>-0.007131046914182377</v>
+        <v>0.003033159672478066</v>
       </c>
       <c r="C32">
-        <v>0.01343783456417579</v>
+        <v>-0.03592724390417924</v>
       </c>
       <c r="D32">
-        <v>-0.009773834216349078</v>
+        <v>0.004118532977128432</v>
       </c>
       <c r="E32">
-        <v>-0.02593597613316816</v>
-      </c>
-    </row>
-    <row r="33" spans="1:5">
+        <v>-0.008439688258191715</v>
+      </c>
+      <c r="F32">
+        <v>0.05390821570962795</v>
+      </c>
+      <c r="G32">
+        <v>0.05693140003224285</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7">
       <c r="A33" s="1" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="B33">
-        <v>0.01223512996142386</v>
+        <v>0.02745436970565521</v>
       </c>
       <c r="C33">
-        <v>0.02529969606713327</v>
+        <v>-0.04886084750075539</v>
       </c>
       <c r="D33">
-        <v>-0.02350398265988417</v>
+        <v>-0.01429804366131624</v>
       </c>
       <c r="E33">
-        <v>0.02618439492891872</v>
-      </c>
-    </row>
-    <row r="34" spans="1:5">
+        <v>-0.01993156290814362</v>
+      </c>
+      <c r="F33">
+        <v>0.02681376627107149</v>
+      </c>
+      <c r="G33">
+        <v>0.03484421793097778</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7">
       <c r="A34" s="1" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="B34">
-        <v>-0.00480049846409701</v>
+        <v>0.04411179093425353</v>
       </c>
       <c r="C34">
-        <v>0.02116208397457356</v>
+        <v>-0.05398286964307961</v>
       </c>
       <c r="D34">
-        <v>-0.04981604021286563</v>
+        <v>0.005389512348042021</v>
       </c>
       <c r="E34">
-        <v>-0.001109799635233515</v>
-      </c>
-    </row>
-    <row r="35" spans="1:5">
+        <v>0.01008037417538027</v>
+      </c>
+      <c r="F34">
+        <v>0.01915475238742585</v>
+      </c>
+      <c r="G34">
+        <v>0.03807039728454512</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7">
       <c r="A35" s="1" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B35">
         <v>0</v>
@@ -1289,27 +1499,39 @@
       <c r="E35">
         <v>0</v>
       </c>
-    </row>
-    <row r="36" spans="1:5">
+      <c r="F35">
+        <v>0</v>
+      </c>
+      <c r="G35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7">
       <c r="A36" s="1" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="B36">
-        <v>0.01168066035682663</v>
+        <v>0.01170106132739548</v>
       </c>
       <c r="C36">
-        <v>0.01733641571921823</v>
+        <v>-0.007218084145312282</v>
       </c>
       <c r="D36">
-        <v>-0.00239952313845371</v>
+        <v>-0.01135467376899627</v>
       </c>
       <c r="E36">
-        <v>-0.002031618135934968</v>
-      </c>
-    </row>
-    <row r="37" spans="1:5">
+        <v>-0.00148379482981313</v>
+      </c>
+      <c r="F36">
+        <v>-0.002400288052701053</v>
+      </c>
+      <c r="G36">
+        <v>0.02488495432303491</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7">
       <c r="A37" s="1" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="B37">
         <v>0</v>
@@ -1323,129 +1545,177 @@
       <c r="E37">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:5">
+      <c r="F37">
+        <v>0</v>
+      </c>
+      <c r="G37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7">
       <c r="A38" s="1" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="B38">
-        <v>-0.006330363656193105</v>
+        <v>0.03231683957736467</v>
       </c>
       <c r="C38">
-        <v>0.02631790451726413</v>
+        <v>-0.02554103543412003</v>
       </c>
       <c r="D38">
-        <v>-0.02400665916354344</v>
+        <v>0.007917209887800425</v>
       </c>
       <c r="E38">
-        <v>-0.000409065924902588</v>
-      </c>
-    </row>
-    <row r="39" spans="1:5">
+        <v>-0.004150214316467926</v>
+      </c>
+      <c r="F38">
+        <v>-0.005045448160068939</v>
+      </c>
+      <c r="G38">
+        <v>0.03337248474416006</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7">
       <c r="A39" s="1" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="B39">
-        <v>0.005966466465334029</v>
+        <v>0.03250318082795366</v>
       </c>
       <c r="C39">
-        <v>-0.01537079303188455</v>
+        <v>-0.08042688851717661</v>
       </c>
       <c r="D39">
-        <v>-0.09715130110764299</v>
+        <v>-0.01204465321283092</v>
       </c>
       <c r="E39">
-        <v>0.01660414926556808</v>
-      </c>
-    </row>
-    <row r="40" spans="1:5">
+        <v>-0.02094920349235851</v>
+      </c>
+      <c r="F39">
+        <v>0.03857068405795307</v>
+      </c>
+      <c r="G39">
+        <v>0.02814347681311098</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7">
       <c r="A40" s="1" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="B40">
-        <v>0.01061604109333724</v>
+        <v>0.022073860930219</v>
       </c>
       <c r="C40">
-        <v>0.01749003757777609</v>
+        <v>-0.0310991484385301</v>
       </c>
       <c r="D40">
-        <v>-0.03977786132984718</v>
+        <v>-0.01286414669277112</v>
       </c>
       <c r="E40">
-        <v>0.01124527146924561</v>
-      </c>
-    </row>
-    <row r="41" spans="1:5">
+        <v>-0.01849251561101752</v>
+      </c>
+      <c r="F40">
+        <v>0.0191263882742367</v>
+      </c>
+      <c r="G40">
+        <v>0.0248223515401912</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7">
       <c r="A41" s="1" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="B41">
-        <v>0.00510579027473147</v>
+        <v>0.01330074919962289</v>
       </c>
       <c r="C41">
-        <v>0.01988633784874064</v>
+        <v>0.001341012283157325</v>
       </c>
       <c r="D41">
-        <v>0.006515304682875668</v>
+        <v>-0.003409591758303264</v>
       </c>
       <c r="E41">
-        <v>-0.002857586400724561</v>
-      </c>
-    </row>
-    <row r="42" spans="1:5">
+        <v>0.001337462940938239</v>
+      </c>
+      <c r="F41">
+        <v>-0.002569931100338476</v>
+      </c>
+      <c r="G41">
+        <v>0.01666648552693105</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7">
       <c r="A42" s="1" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="B42">
-        <v>0.09455008339918769</v>
+        <v>0.01982593134093124</v>
       </c>
       <c r="C42">
-        <v>0.03739758195774665</v>
+        <v>-0.04651571544768387</v>
       </c>
       <c r="D42">
-        <v>-0.2272114000686223</v>
+        <v>-0.09655498802136954</v>
       </c>
       <c r="E42">
-        <v>0.2893212442508867</v>
-      </c>
-    </row>
-    <row r="43" spans="1:5">
+        <v>-0.04284373801717588</v>
+      </c>
+      <c r="F42">
+        <v>-0.04408278002661589</v>
+      </c>
+      <c r="G42">
+        <v>-0.1744618471032989</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7">
       <c r="A43" s="1" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="B43">
-        <v>0.005896333123586607</v>
+        <v>0.02915838752377937</v>
       </c>
       <c r="C43">
-        <v>0.0186593129395752</v>
+        <v>-0.008040145066569294</v>
       </c>
       <c r="D43">
-        <v>0.01170145015205739</v>
+        <v>-0.003657688795971198</v>
       </c>
       <c r="E43">
-        <v>0.0008092093811263746</v>
-      </c>
-    </row>
-    <row r="44" spans="1:5">
+        <v>-0.004635955443919196</v>
+      </c>
+      <c r="F43">
+        <v>-0.003719299829888687</v>
+      </c>
+      <c r="G43">
+        <v>0.02252451607403864</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7">
       <c r="A44" s="1" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B44">
-        <v>0.002860921102918392</v>
+        <v>0.01735432101649254</v>
       </c>
       <c r="C44">
-        <v>-0.001427060389912034</v>
+        <v>-0.04830216192720379</v>
       </c>
       <c r="D44">
-        <v>-0.03084963344400274</v>
+        <v>-0.006189713333960177</v>
       </c>
       <c r="E44">
-        <v>-0.0005532943632463648</v>
-      </c>
-    </row>
-    <row r="45" spans="1:5">
+        <v>-0.01616573886041554</v>
+      </c>
+      <c r="F44">
+        <v>0.009589760115190589</v>
+      </c>
+      <c r="G44">
+        <v>0.03910470665227685</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7">
       <c r="A45" s="1" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="B45">
         <v>0</v>
@@ -1459,61 +1729,85 @@
       <c r="E45">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:5">
+      <c r="F45">
+        <v>0</v>
+      </c>
+      <c r="G45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7">
       <c r="A46" s="1" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B46">
-        <v>0.01058583296209642</v>
+        <v>0.006887036716082798</v>
       </c>
       <c r="C46">
-        <v>0.01631386956474576</v>
+        <v>-0.01709491689442011</v>
       </c>
       <c r="D46">
-        <v>-0.01856006451758054</v>
+        <v>-0.01160047558764663</v>
       </c>
       <c r="E46">
-        <v>0.003979159224504784</v>
-      </c>
-    </row>
-    <row r="47" spans="1:5">
+        <v>0.0009889778512633255</v>
+      </c>
+      <c r="F46">
+        <v>-0.01429168484198098</v>
+      </c>
+      <c r="G46">
+        <v>0.02687526782306177</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7">
       <c r="A47" s="1" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="B47">
-        <v>0.0009878182110618717</v>
+        <v>0.07358886352702722</v>
       </c>
       <c r="C47">
-        <v>0.06191220692824321</v>
+        <v>-0.06504815656359429</v>
       </c>
       <c r="D47">
-        <v>-0.0475359037301538</v>
+        <v>0.005204167602192324</v>
       </c>
       <c r="E47">
-        <v>0.006234174092908527</v>
-      </c>
-    </row>
-    <row r="48" spans="1:5">
+        <v>0.01082156920511878</v>
+      </c>
+      <c r="F47">
+        <v>-0.05776497111739152</v>
+      </c>
+      <c r="G47">
+        <v>0.02540385105693065</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7">
       <c r="A48" s="1" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="B48">
-        <v>0.002507231753077054</v>
+        <v>0.02215925121891204</v>
       </c>
       <c r="C48">
-        <v>0.02743031968942952</v>
+        <v>-0.009044289206929386</v>
       </c>
       <c r="D48">
-        <v>-0.01134541686484718</v>
+        <v>-0.0006007315089916576</v>
       </c>
       <c r="E48">
-        <v>0.0002611147694241451</v>
-      </c>
-    </row>
-    <row r="49" spans="1:5">
+        <v>0.001754916196358949</v>
+      </c>
+      <c r="F48">
+        <v>-0.01410752746911339</v>
+      </c>
+      <c r="G48">
+        <v>0.02990134232853194</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7">
       <c r="A49" s="1" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="B49">
         <v>0</v>
@@ -1527,44 +1821,62 @@
       <c r="E49">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="1:5">
+      <c r="F49">
+        <v>0</v>
+      </c>
+      <c r="G49">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7">
       <c r="A50" s="1" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="B50">
-        <v>0.002188760577547405</v>
+        <v>0.07959850868746689</v>
       </c>
       <c r="C50">
-        <v>0.05110407176837208</v>
+        <v>-0.06657547490325638</v>
       </c>
       <c r="D50">
-        <v>-0.06249531350230608</v>
+        <v>0.003891723246158758</v>
       </c>
       <c r="E50">
-        <v>-0.0186214747640047</v>
-      </c>
-    </row>
-    <row r="51" spans="1:5">
+        <v>0.01092526613816545</v>
+      </c>
+      <c r="F50">
+        <v>-0.05702025383555637</v>
+      </c>
+      <c r="G50">
+        <v>0.04751251015299378</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7">
       <c r="A51" s="1" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="B51">
-        <v>0.00707197301105087</v>
+        <v>0.0123772889683737</v>
       </c>
       <c r="C51">
-        <v>0.02009589818867576</v>
+        <v>-0.02699325400806903</v>
       </c>
       <c r="D51">
-        <v>0.01170126272644071</v>
+        <v>-0.00888045318440512</v>
       </c>
       <c r="E51">
-        <v>-0.0087476914152616</v>
-      </c>
-    </row>
-    <row r="52" spans="1:5">
+        <v>-0.008009925561107918</v>
+      </c>
+      <c r="F51">
+        <v>0.02488462962790235</v>
+      </c>
+      <c r="G51">
+        <v>0.05335426783162046</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7">
       <c r="A52" s="1" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="B52">
         <v>0</v>
@@ -1578,163 +1890,223 @@
       <c r="E52">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="1:5">
+      <c r="F52">
+        <v>0</v>
+      </c>
+      <c r="G52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7">
       <c r="A53" s="1" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="B53">
-        <v>0.003848696267549193</v>
+        <v>0.09233844328958209</v>
       </c>
       <c r="C53">
-        <v>0.08221623964994697</v>
+        <v>-0.08135190469877247</v>
       </c>
       <c r="D53">
-        <v>-0.1026298186859985</v>
+        <v>0.00530322068431094</v>
       </c>
       <c r="E53">
-        <v>0.003338340967135763</v>
-      </c>
-    </row>
-    <row r="54" spans="1:5">
+        <v>0.03986923268258892</v>
+      </c>
+      <c r="F53">
+        <v>-0.06563811068679663</v>
+      </c>
+      <c r="G53">
+        <v>0.02550040960663652</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7">
       <c r="A54" s="1" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="B54">
-        <v>-0.001367101012575549</v>
+        <v>0.02988778827852105</v>
       </c>
       <c r="C54">
-        <v>0.03367548438109599</v>
+        <v>-0.008493494836379126</v>
       </c>
       <c r="D54">
-        <v>0.009494350966898869</v>
+        <v>0.003262228049033061</v>
       </c>
       <c r="E54">
-        <v>-0.0116456921975701</v>
-      </c>
-    </row>
-    <row r="55" spans="1:5">
+        <v>-0.002953111393546227</v>
+      </c>
+      <c r="F54">
+        <v>-0.001274795418980878</v>
+      </c>
+      <c r="G54">
+        <v>0.03531724400992138</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7">
       <c r="A55" s="1" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="B55">
-        <v>0.001259540812016697</v>
+        <v>0.0715727810646332</v>
       </c>
       <c r="C55">
-        <v>0.05924684504052637</v>
+        <v>-0.07407896387225874</v>
       </c>
       <c r="D55">
-        <v>-0.08734332257374686</v>
+        <v>0.00454306762671306</v>
       </c>
       <c r="E55">
-        <v>0.0139799938446132</v>
-      </c>
-    </row>
-    <row r="56" spans="1:5">
+        <v>0.02732793137908642</v>
+      </c>
+      <c r="F55">
+        <v>-0.05912833345376972</v>
+      </c>
+      <c r="G55">
+        <v>0.01124117018650204</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7">
       <c r="A56" s="1" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="B56">
-        <v>0.0003787917493415936</v>
+        <v>0.1426893755090693</v>
       </c>
       <c r="C56">
-        <v>0.1038086862781746</v>
+        <v>-0.1045709978950007</v>
       </c>
       <c r="D56">
-        <v>-0.1306120177191012</v>
+        <v>0.01387600242575936</v>
       </c>
       <c r="E56">
-        <v>0.01470698912037588</v>
-      </c>
-    </row>
-    <row r="57" spans="1:5">
+        <v>0.03804992371618675</v>
+      </c>
+      <c r="F56">
+        <v>-0.09752318969800486</v>
+      </c>
+      <c r="G56">
+        <v>-0.001356236399577997</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7">
       <c r="A57" s="1" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="B57">
-        <v>0.02301424881980096</v>
+        <v>0.01130180862291489</v>
       </c>
       <c r="C57">
-        <v>0.02059409044703034</v>
+        <v>-0.01084865253332572</v>
       </c>
       <c r="D57">
-        <v>-0.039158854199243</v>
+        <v>-0.0236069812713282</v>
       </c>
       <c r="E57">
-        <v>0.01332576326523159</v>
-      </c>
-    </row>
-    <row r="58" spans="1:5">
+        <v>-0.02672373079268857</v>
+      </c>
+      <c r="F57">
+        <v>0.01731992367831922</v>
+      </c>
+      <c r="G57">
+        <v>0.01975670660239833</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7">
       <c r="A58" s="1" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="B58">
-        <v>0.009849974754175164</v>
+        <v>0.08205982849511025</v>
       </c>
       <c r="C58">
-        <v>0.09455928514935215</v>
+        <v>-0.05535571152418969</v>
       </c>
       <c r="D58">
-        <v>-0.1001030153011705</v>
+        <v>-0.01703124760166772</v>
       </c>
       <c r="E58">
-        <v>0.2168393371624182</v>
-      </c>
-    </row>
-    <row r="59" spans="1:5">
+        <v>-0.9570330954704744</v>
+      </c>
+      <c r="F58">
+        <v>-0.1691023795663592</v>
+      </c>
+      <c r="G58">
+        <v>0.006314460955822417</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7">
       <c r="A59" s="1" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="B59">
-        <v>0.02408714778447821</v>
+        <v>0.1544917844482806</v>
       </c>
       <c r="C59">
-        <v>0.2262500396212096</v>
+        <v>0.2093788660930157</v>
       </c>
       <c r="D59">
-        <v>0.1879738783362375</v>
+        <v>0.01621389031221422</v>
       </c>
       <c r="E59">
-        <v>-0.006711773059061048</v>
-      </c>
-    </row>
-    <row r="60" spans="1:5">
+        <v>-0.01425672215675786</v>
+      </c>
+      <c r="F59">
+        <v>0.009354398040009008</v>
+      </c>
+      <c r="G59">
+        <v>0.02078371646095915</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7">
       <c r="A60" s="1" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="B60">
-        <v>0.03006312050002626</v>
+        <v>0.2883563971020991</v>
       </c>
       <c r="C60">
-        <v>0.1610949780502562</v>
+        <v>-0.09415184982421038</v>
       </c>
       <c r="D60">
-        <v>-0.07968604298772684</v>
+        <v>-0.009195511915868202</v>
       </c>
       <c r="E60">
-        <v>0.05077435349527816</v>
-      </c>
-    </row>
-    <row r="61" spans="1:5">
+        <v>0.02207430902846848</v>
+      </c>
+      <c r="F60">
+        <v>0.3744423235015911</v>
+      </c>
+      <c r="G60">
+        <v>-0.08241585410920524</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7">
       <c r="A61" s="1" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="B61">
-        <v>0.002833991276501774</v>
+        <v>0.03324037417517184</v>
       </c>
       <c r="C61">
-        <v>0.009567785445962727</v>
+        <v>-0.06419696143809613</v>
       </c>
       <c r="D61">
-        <v>-0.06692601669541026</v>
+        <v>-0.005265065121575908</v>
       </c>
       <c r="E61">
-        <v>0.009546260353054229</v>
-      </c>
-    </row>
-    <row r="62" spans="1:5">
+        <v>-0.008621122959888311</v>
+      </c>
+      <c r="F61">
+        <v>0.02079972309304379</v>
+      </c>
+      <c r="G61">
+        <v>0.02642253349965958</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7">
       <c r="A62" s="1" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="B62">
         <v>0</v>
@@ -1748,129 +2120,177 @@
       <c r="E62">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="1:5">
+      <c r="F62">
+        <v>0</v>
+      </c>
+      <c r="G62">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7">
       <c r="A63" s="1" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="B63">
-        <v>0.007229036665705083</v>
+        <v>0.0116268062634454</v>
       </c>
       <c r="C63">
-        <v>0.007685907340756454</v>
+        <v>-0.02853770895897466</v>
       </c>
       <c r="D63">
-        <v>-0.008452238153438098</v>
+        <v>-0.008095505714971836</v>
       </c>
       <c r="E63">
-        <v>-0.007203716576274347</v>
-      </c>
-    </row>
-    <row r="64" spans="1:5">
+        <v>0.00725085658307661</v>
+      </c>
+      <c r="F63">
+        <v>-0.01842080705493273</v>
+      </c>
+      <c r="G63">
+        <v>0.03612772397261651</v>
+      </c>
+    </row>
+    <row r="64" spans="1:7">
       <c r="A64" s="1" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="B64">
-        <v>0.006739634555631735</v>
+        <v>0.05017440556721894</v>
       </c>
       <c r="C64">
-        <v>0.03314553200137035</v>
+        <v>-0.03858668583364882</v>
       </c>
       <c r="D64">
-        <v>-0.06498325338214457</v>
+        <v>-0.004838229008525569</v>
       </c>
       <c r="E64">
-        <v>0.01223714124946808</v>
-      </c>
-    </row>
-    <row r="65" spans="1:5">
+        <v>0.006695482866914241</v>
+      </c>
+      <c r="F64">
+        <v>0.003260706397731928</v>
+      </c>
+      <c r="G64">
+        <v>0.02359764771143657</v>
+      </c>
+    </row>
+    <row r="65" spans="1:7">
       <c r="A65" s="1" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="B65">
-        <v>0.01755529845816396</v>
+        <v>0.08440534842689951</v>
       </c>
       <c r="C65">
-        <v>0.0302616809706743</v>
+        <v>-0.06417959822217367</v>
       </c>
       <c r="D65">
-        <v>-0.09365141946135973</v>
+        <v>-0.01471026820979147</v>
       </c>
       <c r="E65">
-        <v>0.004258196874824096</v>
-      </c>
-    </row>
-    <row r="66" spans="1:5">
+        <v>-0.0114264660384545</v>
+      </c>
+      <c r="F65">
+        <v>0.02734537177800964</v>
+      </c>
+      <c r="G65">
+        <v>0.01220451563441915</v>
+      </c>
+    </row>
+    <row r="66" spans="1:7">
       <c r="A66" s="1" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="B66">
-        <v>0.005370460019781025</v>
+        <v>0.05363765919376188</v>
       </c>
       <c r="C66">
-        <v>-0.004353681495480948</v>
+        <v>-0.1135145541513943</v>
       </c>
       <c r="D66">
-        <v>-0.1184772123518639</v>
+        <v>-0.01143182735205428</v>
       </c>
       <c r="E66">
-        <v>0.03222704716399612</v>
-      </c>
-    </row>
-    <row r="67" spans="1:5">
+        <v>-0.02154961208479788</v>
+      </c>
+      <c r="F66">
+        <v>0.04628775391330223</v>
+      </c>
+      <c r="G66">
+        <v>0.02043194979652568</v>
+      </c>
+    </row>
+    <row r="67" spans="1:7">
       <c r="A67" s="1" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="B67">
-        <v>-0.001415780167817231</v>
+        <v>0.0548528635720222</v>
       </c>
       <c r="C67">
-        <v>0.04380116683043032</v>
+        <v>-0.0303153410713692</v>
       </c>
       <c r="D67">
-        <v>-0.02671665579706478</v>
+        <v>0.006265170357056674</v>
       </c>
       <c r="E67">
-        <v>0.00126931736260068</v>
-      </c>
-    </row>
-    <row r="68" spans="1:5">
+        <v>0.003728551709376441</v>
+      </c>
+      <c r="F67">
+        <v>-0.0065970017568852</v>
+      </c>
+      <c r="G67">
+        <v>0.03149820985472556</v>
+      </c>
+    </row>
+    <row r="68" spans="1:7">
       <c r="A68" s="1" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="B68">
-        <v>0.04160680511479395</v>
+        <v>0.1378336695705529</v>
       </c>
       <c r="C68">
-        <v>0.1965298217370153</v>
+        <v>0.2671655176405429</v>
       </c>
       <c r="D68">
-        <v>0.1812074989372403</v>
+        <v>-0.001548497210483504</v>
       </c>
       <c r="E68">
-        <v>-0.003386273776708986</v>
-      </c>
-    </row>
-    <row r="69" spans="1:5">
+        <v>-0.01403555866525313</v>
+      </c>
+      <c r="F68">
+        <v>-0.03704671998881454</v>
+      </c>
+      <c r="G68">
+        <v>0.0205034081467542</v>
+      </c>
+    </row>
+    <row r="69" spans="1:7">
       <c r="A69" s="1" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="B69">
-        <v>-0.003427163559762266</v>
+        <v>0.07734258614047039</v>
       </c>
       <c r="C69">
-        <v>0.04639431554936283</v>
+        <v>-0.06537046545951963</v>
       </c>
       <c r="D69">
-        <v>-0.05383882889790646</v>
+        <v>0.009179931861455139</v>
       </c>
       <c r="E69">
-        <v>0.00108052505696324</v>
-      </c>
-    </row>
-    <row r="70" spans="1:5">
+        <v>0.03052042915913553</v>
+      </c>
+      <c r="F69">
+        <v>-0.04336927216530876</v>
+      </c>
+      <c r="G69">
+        <v>0.02664330165316188</v>
+      </c>
+    </row>
+    <row r="70" spans="1:7">
       <c r="A70" s="1" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="B70">
         <v>0</v>
@@ -1884,146 +2304,200 @@
       <c r="E70">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="1:5">
+      <c r="F70">
+        <v>0</v>
+      </c>
+      <c r="G70">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:7">
       <c r="A71" s="1" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="B71">
-        <v>0.02923230880700391</v>
+        <v>0.1360755234976588</v>
       </c>
       <c r="C71">
-        <v>0.175353518012751</v>
+        <v>0.2293873568483177</v>
       </c>
       <c r="D71">
-        <v>0.1612220329802102</v>
+        <v>0.00764352754813244</v>
       </c>
       <c r="E71">
-        <v>-0.01525443154742159</v>
-      </c>
-    </row>
-    <row r="72" spans="1:5">
+        <v>-0.02505605929961624</v>
+      </c>
+      <c r="F71">
+        <v>-0.01075607728520104</v>
+      </c>
+      <c r="G71">
+        <v>0.0309817216864937</v>
+      </c>
+    </row>
+    <row r="72" spans="1:7">
       <c r="A72" s="1" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="B72">
-        <v>-0.002581808946633926</v>
+        <v>0.08259336381616179</v>
       </c>
       <c r="C72">
-        <v>0.05005695915500527</v>
+        <v>-0.07326659228460587</v>
       </c>
       <c r="D72">
-        <v>-0.138567062158999</v>
+        <v>0.008720915518115361</v>
       </c>
       <c r="E72">
-        <v>0.03550691042605642</v>
-      </c>
-    </row>
-    <row r="73" spans="1:5">
+        <v>0.0138269545626131</v>
+      </c>
+      <c r="F72">
+        <v>0.03772483465777291</v>
+      </c>
+      <c r="G72">
+        <v>0.007691002315419437</v>
+      </c>
+    </row>
+    <row r="73" spans="1:7">
       <c r="A73" s="1" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="B73">
-        <v>0.04429037746146439</v>
+        <v>0.3946208165591304</v>
       </c>
       <c r="C73">
-        <v>0.2003231982729103</v>
+        <v>-0.1046449123831868</v>
       </c>
       <c r="D73">
-        <v>-0.1443629457664176</v>
+        <v>-0.01440594008680482</v>
       </c>
       <c r="E73">
-        <v>0.1165113569251168</v>
-      </c>
-    </row>
-    <row r="74" spans="1:5">
+        <v>-0.02508300692802898</v>
+      </c>
+      <c r="F73">
+        <v>0.5508817016805714</v>
+      </c>
+      <c r="G73">
+        <v>-0.1305666429418743</v>
+      </c>
+    </row>
+    <row r="74" spans="1:7">
       <c r="A74" s="1" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="B74">
-        <v>-0.001128748759221716</v>
+        <v>0.1167050939501647</v>
       </c>
       <c r="C74">
-        <v>0.09574522308433904</v>
+        <v>-0.1186042466050895</v>
       </c>
       <c r="D74">
-        <v>-0.129767251910693</v>
+        <v>0.01045277994609556</v>
       </c>
       <c r="E74">
-        <v>0.02218138276545828</v>
-      </c>
-    </row>
-    <row r="75" spans="1:5">
+        <v>0.02297200259542346</v>
+      </c>
+      <c r="F74">
+        <v>-0.08365067917329747</v>
+      </c>
+      <c r="G74">
+        <v>0.03153031471982236</v>
+      </c>
+    </row>
+    <row r="75" spans="1:7">
       <c r="A75" s="1" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="B75">
-        <v>0.001152759829964019</v>
+        <v>0.2573974889612652</v>
       </c>
       <c r="C75">
-        <v>0.2288914738426638</v>
+        <v>-0.1547479818158236</v>
       </c>
       <c r="D75">
-        <v>-0.2228537273004983</v>
+        <v>0.03146617268961612</v>
       </c>
       <c r="E75">
-        <v>0.04784489560114553</v>
-      </c>
-    </row>
-    <row r="76" spans="1:5">
+        <v>0.05836148334092884</v>
+      </c>
+      <c r="F75">
+        <v>-0.2115235119343774</v>
+      </c>
+      <c r="G75">
+        <v>-0.04348977863487144</v>
+      </c>
+    </row>
+    <row r="76" spans="1:7">
       <c r="A76" s="1" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="B76">
-        <v>-0.005272103864402936</v>
+        <v>0.1350502319159044</v>
       </c>
       <c r="C76">
-        <v>0.1649119458272595</v>
+        <v>-0.1261054662217044</v>
       </c>
       <c r="D76">
-        <v>-0.2097231100611879</v>
+        <v>0.02160843824406055</v>
       </c>
       <c r="E76">
-        <v>0.01110974853044522</v>
-      </c>
-    </row>
-    <row r="77" spans="1:5">
+        <v>0.05376922253379561</v>
+      </c>
+      <c r="F76">
+        <v>-0.1430044816270499</v>
+      </c>
+      <c r="G76">
+        <v>0.01150219916981216</v>
+      </c>
+    </row>
+    <row r="77" spans="1:7">
       <c r="A77" s="1" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="B77">
-        <v>0.0119544272292868</v>
+        <v>0.06350577421407876</v>
       </c>
       <c r="C77">
-        <v>0.01581528696737086</v>
+        <v>-0.06459898291861808</v>
       </c>
       <c r="D77">
-        <v>-0.06608278458205995</v>
+        <v>-0.01262823939938718</v>
       </c>
       <c r="E77">
-        <v>0.01084028952004619</v>
-      </c>
-    </row>
-    <row r="78" spans="1:5">
+        <v>-0.0471999192219692</v>
+      </c>
+      <c r="F77">
+        <v>0.01731180477725438</v>
+      </c>
+      <c r="G77">
+        <v>0.05152890033911479</v>
+      </c>
+    </row>
+    <row r="78" spans="1:7">
       <c r="A78" s="1" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="B78">
-        <v>0.003968613302598663</v>
+        <v>0.040641257973335</v>
       </c>
       <c r="C78">
-        <v>0.01546271977649768</v>
+        <v>-0.05025907335010992</v>
       </c>
       <c r="D78">
-        <v>-0.06368300811421609</v>
+        <v>-0.005442727167758122</v>
       </c>
       <c r="E78">
-        <v>0.006736063855599516</v>
-      </c>
-    </row>
-    <row r="79" spans="1:5">
+        <v>-0.01963826091811538</v>
+      </c>
+      <c r="F78">
+        <v>0.04314267933139537</v>
+      </c>
+      <c r="G78">
+        <v>0.0363574930005401</v>
+      </c>
+    </row>
+    <row r="79" spans="1:7">
       <c r="A79" s="1" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="B79">
         <v>0</v>
@@ -2037,78 +2511,108 @@
       <c r="E79">
         <v>0</v>
       </c>
-    </row>
-    <row r="80" spans="1:5">
+      <c r="F79">
+        <v>0</v>
+      </c>
+      <c r="G79">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80" spans="1:7">
       <c r="A80" s="1" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="B80">
-        <v>0.01471673645242995</v>
+        <v>0.05814981401779977</v>
       </c>
       <c r="C80">
-        <v>0.1497685589758959</v>
+        <v>-0.06699909232020905</v>
       </c>
       <c r="D80">
-        <v>-0.2376491730260094</v>
+        <v>-0.01246116192381428</v>
       </c>
       <c r="E80">
-        <v>-0.8942046394209193</v>
-      </c>
-    </row>
-    <row r="81" spans="1:5">
+        <v>0.04068797828583209</v>
+      </c>
+      <c r="F80">
+        <v>0.0382377630278871</v>
+      </c>
+      <c r="G80">
+        <v>0.911319117293612</v>
+      </c>
+    </row>
+    <row r="81" spans="1:7">
       <c r="A81" s="1" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="B81">
-        <v>0.001682582826341316</v>
+        <v>0.1450773074741402</v>
       </c>
       <c r="C81">
-        <v>0.1448943993169922</v>
+        <v>-0.09494825030307233</v>
       </c>
       <c r="D81">
-        <v>-0.1451290397579962</v>
+        <v>0.0161625976438723</v>
       </c>
       <c r="E81">
-        <v>0.02192822593056722</v>
-      </c>
-    </row>
-    <row r="82" spans="1:5">
+        <v>0.03247656229017796</v>
+      </c>
+      <c r="F81">
+        <v>-0.1372288066250174</v>
+      </c>
+      <c r="G81">
+        <v>0.01089673525198383</v>
+      </c>
+    </row>
+    <row r="82" spans="1:7">
       <c r="A82" s="1" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="B82">
-        <v>0</v>
+        <v>0.05323389722557732</v>
       </c>
       <c r="C82">
-        <v>0</v>
+        <v>-0.03900118786711122</v>
       </c>
       <c r="D82">
-        <v>0</v>
+        <v>0.002809480157071567</v>
       </c>
       <c r="E82">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="83" spans="1:5">
+        <v>0.0215486752768433</v>
+      </c>
+      <c r="F82">
+        <v>-0.009027531642745536</v>
+      </c>
+      <c r="G82">
+        <v>-0.005711302989103925</v>
+      </c>
+    </row>
+    <row r="83" spans="1:7">
       <c r="A83" s="1" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="B83">
-        <v>0.006525800007601041</v>
+        <v>0.02769322109848397</v>
       </c>
       <c r="C83">
-        <v>0.03000544525135278</v>
+        <v>-0.02082382495539352</v>
       </c>
       <c r="D83">
-        <v>-0.02392584291321578</v>
+        <v>-0.005123557092784106</v>
       </c>
       <c r="E83">
-        <v>0.008818743674526539</v>
-      </c>
-    </row>
-    <row r="84" spans="1:5">
+        <v>-0.02382025119988931</v>
+      </c>
+      <c r="F83">
+        <v>0.0185622258654491</v>
+      </c>
+      <c r="G83">
+        <v>0.02324396019624999</v>
+      </c>
+    </row>
+    <row r="84" spans="1:7">
       <c r="A84" s="1" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B84">
         <v>0</v>
@@ -2122,197 +2626,269 @@
       <c r="E84">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="1:5">
+      <c r="F84">
+        <v>0</v>
+      </c>
+      <c r="G84">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="1:7">
       <c r="A85" s="1" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="B85">
-        <v>0.009075917401452416</v>
+        <v>0.2328657899793807</v>
       </c>
       <c r="C85">
-        <v>0.1782765307587946</v>
+        <v>-0.1523033456552892</v>
       </c>
       <c r="D85">
-        <v>-0.2371588058580333</v>
+        <v>0.02001266991757189</v>
       </c>
       <c r="E85">
-        <v>0.05197389934906697</v>
-      </c>
-    </row>
-    <row r="86" spans="1:5">
+        <v>0.1053106097258742</v>
+      </c>
+      <c r="F85">
+        <v>-0.1879504171621647</v>
+      </c>
+      <c r="G85">
+        <v>-0.06407203970136753</v>
+      </c>
+    </row>
+    <row r="86" spans="1:7">
       <c r="A86" s="1" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="B86">
-        <v>0.006427575163919446</v>
+        <v>0.01332097705285444</v>
       </c>
       <c r="C86">
-        <v>0.02197609224067486</v>
+        <v>-0.01469641133831732</v>
       </c>
       <c r="D86">
-        <v>-0.009635566068083107</v>
+        <v>-0.009317938178312606</v>
       </c>
       <c r="E86">
-        <v>0.0223794834115942</v>
-      </c>
-    </row>
-    <row r="87" spans="1:5">
+        <v>-0.02935985887316757</v>
+      </c>
+      <c r="F86">
+        <v>0.03562662913574449</v>
+      </c>
+      <c r="G86">
+        <v>0.05141401234277385</v>
+      </c>
+    </row>
+    <row r="87" spans="1:7">
       <c r="A87" s="1" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B87">
-        <v>0.007411382438477387</v>
+        <v>0.02073307118847541</v>
       </c>
       <c r="C87">
-        <v>0.0124592656248072</v>
+        <v>-0.02566953257260018</v>
       </c>
       <c r="D87">
-        <v>-0.03857794138852717</v>
+        <v>-0.01072872555588628</v>
       </c>
       <c r="E87">
-        <v>0.00949756545556725</v>
-      </c>
-    </row>
-    <row r="88" spans="1:5">
+        <v>-0.08585949687848911</v>
+      </c>
+      <c r="F87">
+        <v>0.03283442947852542</v>
+      </c>
+      <c r="G87">
+        <v>0.04658480446426674</v>
+      </c>
+    </row>
+    <row r="88" spans="1:7">
       <c r="A88" s="1" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B88">
-        <v>0.02649065354299781</v>
+        <v>0.09137642545604475</v>
       </c>
       <c r="C88">
-        <v>0.04711935929057702</v>
+        <v>-0.06069418387084356</v>
       </c>
       <c r="D88">
-        <v>-0.02830161165616804</v>
+        <v>-0.02155079650419384</v>
       </c>
       <c r="E88">
-        <v>0.007865493346201166</v>
-      </c>
-    </row>
-    <row r="89" spans="1:5">
+        <v>0.01486493622672855</v>
+      </c>
+      <c r="F88">
+        <v>-0.01163887303533729</v>
+      </c>
+      <c r="G88">
+        <v>0.02236716503363433</v>
+      </c>
+    </row>
+    <row r="89" spans="1:7">
       <c r="A89" s="1" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B89">
-        <v>0.05636492562076961</v>
+        <v>0.2271249842954383</v>
       </c>
       <c r="C89">
-        <v>0.3408357664284611</v>
+        <v>0.367954260036242</v>
       </c>
       <c r="D89">
-        <v>0.2859092402014234</v>
+        <v>0.008483613287083504</v>
       </c>
       <c r="E89">
-        <v>-0.005640075974838977</v>
-      </c>
-    </row>
-    <row r="90" spans="1:5">
+        <v>0.01876553657748554</v>
+      </c>
+      <c r="F89">
+        <v>-0.03234444017878835</v>
+      </c>
+      <c r="G89">
+        <v>0.03229127067446936</v>
+      </c>
+    </row>
+    <row r="90" spans="1:7">
       <c r="A90" s="1" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B90">
-        <v>0.04195805607899151</v>
+        <v>0.1953751306083919</v>
       </c>
       <c r="C90">
-        <v>0.2492315232882404</v>
+        <v>0.3333532479967621</v>
       </c>
       <c r="D90">
-        <v>0.2611437842312381</v>
+        <v>0.01160786737416535</v>
       </c>
       <c r="E90">
-        <v>-0.002515846523300103</v>
-      </c>
-    </row>
-    <row r="91" spans="1:5">
+        <v>0.00658542171764385</v>
+      </c>
+      <c r="F90">
+        <v>-0.05156337806235197</v>
+      </c>
+      <c r="G90">
+        <v>-0.000837171198547066</v>
+      </c>
+    </row>
+    <row r="91" spans="1:7">
       <c r="A91" s="1" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B91">
-        <v>-0.001364125434694261</v>
+        <v>0.2040410448172581</v>
       </c>
       <c r="C91">
-        <v>0.1902399168370199</v>
+        <v>-0.1411246442719366</v>
       </c>
       <c r="D91">
-        <v>-0.2157007261620526</v>
+        <v>0.0250750768502197</v>
       </c>
       <c r="E91">
-        <v>0.03281147939889789</v>
-      </c>
-    </row>
-    <row r="92" spans="1:5">
+        <v>0.07645304411954962</v>
+      </c>
+      <c r="F91">
+        <v>-0.183709159121736</v>
+      </c>
+      <c r="G91">
+        <v>-0.002437944894315842</v>
+      </c>
+    </row>
+    <row r="92" spans="1:7">
       <c r="A92" s="1" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B92">
-        <v>0.008831104795778063</v>
+        <v>0.2049907050071385</v>
       </c>
       <c r="C92">
-        <v>0.3241786103951363</v>
+        <v>0.259252379193115</v>
       </c>
       <c r="D92">
-        <v>0.1370129791781151</v>
+        <v>0.04966531285703166</v>
       </c>
       <c r="E92">
-        <v>0.001749734363586819</v>
-      </c>
-    </row>
-    <row r="93" spans="1:5">
+        <v>-0.001730524614525519</v>
+      </c>
+      <c r="F92">
+        <v>-0.1147398532325515</v>
+      </c>
+      <c r="G92">
+        <v>0.06405128297016022</v>
+      </c>
+    </row>
+    <row r="93" spans="1:7">
       <c r="A93" s="1" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="B93">
-        <v>0.03932212615311124</v>
+        <v>0.2224252128986486</v>
       </c>
       <c r="C93">
-        <v>0.2866654193336696</v>
+        <v>0.3353088722550583</v>
       </c>
       <c r="D93">
-        <v>0.2643989880527991</v>
+        <v>0.01911223940559851</v>
       </c>
       <c r="E93">
-        <v>0.02084087968137625</v>
-      </c>
-    </row>
-    <row r="94" spans="1:5">
+        <v>-0.006022682393736688</v>
+      </c>
+      <c r="F93">
+        <v>-0.03111561039526394</v>
+      </c>
+      <c r="G93">
+        <v>-0.001771616915195854</v>
+      </c>
+    </row>
+    <row r="94" spans="1:7">
       <c r="A94" s="1" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="B94">
-        <v>0.01998403862381654</v>
+        <v>0.2866258459871371</v>
       </c>
       <c r="C94">
-        <v>0.2356559172667139</v>
+        <v>-0.170568483869414</v>
       </c>
       <c r="D94">
-        <v>-0.2119072370747051</v>
+        <v>0.01398874744191698</v>
       </c>
       <c r="E94">
-        <v>0.08048757841924052</v>
-      </c>
-    </row>
-    <row r="95" spans="1:5">
+        <v>0.09229468135677238</v>
+      </c>
+      <c r="F94">
+        <v>-0.4222570220161885</v>
+      </c>
+      <c r="G94">
+        <v>-0.1397447027381585</v>
+      </c>
+    </row>
+    <row r="95" spans="1:7">
       <c r="A95" s="1" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B95">
-        <v>-0.006444691567818415</v>
+        <v>0.0868559621353045</v>
       </c>
       <c r="C95">
-        <v>0.04853201942394789</v>
+        <v>-0.07711786420675591</v>
       </c>
       <c r="D95">
-        <v>-0.07369505956603105</v>
+        <v>0.007471805686047535</v>
       </c>
       <c r="E95">
-        <v>0.1206213389315617</v>
-      </c>
-    </row>
-    <row r="96" spans="1:5">
+        <v>-0.06537556716759285</v>
+      </c>
+      <c r="F95">
+        <v>0.196906513440692</v>
+      </c>
+      <c r="G95">
+        <v>-0.0649454948265423</v>
+      </c>
+    </row>
+    <row r="96" spans="1:7">
       <c r="A96" s="1" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="B96">
         <v>0</v>
@@ -2326,10 +2902,16 @@
       <c r="E96">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="1:5">
+      <c r="F96">
+        <v>0</v>
+      </c>
+      <c r="G96">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:7">
       <c r="A97" s="1" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="B97">
         <v>0</v>
@@ -2343,27 +2925,39 @@
       <c r="E97">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="1:5">
+      <c r="F97">
+        <v>0</v>
+      </c>
+      <c r="G97">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="1:7">
       <c r="A98" s="1" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="B98">
-        <v>0.005090932511678979</v>
+        <v>0.2063253605132221</v>
       </c>
       <c r="C98">
-        <v>0.1677868419931438</v>
+        <v>-0.04541632509490487</v>
       </c>
       <c r="D98">
-        <v>-0.1029841464945365</v>
+        <v>0.016332375966082</v>
       </c>
       <c r="E98">
-        <v>0.07223837935055298</v>
-      </c>
-    </row>
-    <row r="99" spans="1:5">
+        <v>-0.04720798072746833</v>
+      </c>
+      <c r="F98">
+        <v>0.2590859984679817</v>
+      </c>
+      <c r="G98">
+        <v>-0.0313178920652353</v>
+      </c>
+    </row>
+    <row r="99" spans="1:7">
       <c r="A99" s="1" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="B99">
         <v>0</v>
@@ -2377,10 +2971,16 @@
       <c r="E99">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="1:5">
+      <c r="F99">
+        <v>0</v>
+      </c>
+      <c r="G99">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="1:7">
       <c r="A100" s="1" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="B100">
         <v>0</v>
@@ -2394,73 +2994,103 @@
       <c r="E100">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="1:5">
+      <c r="F100">
+        <v>0</v>
+      </c>
+      <c r="G100">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:7">
       <c r="A101" s="1" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B101">
-        <v>0.007150627062755538</v>
+        <v>0.01419097108099318</v>
       </c>
       <c r="C101">
-        <v>0.01786181615894698</v>
+        <v>-0.02132139934970295</v>
       </c>
       <c r="D101">
-        <v>-0.015565901749666</v>
+        <v>-0.007026933492409584</v>
       </c>
       <c r="E101">
-        <v>-0.00505667646779528</v>
-      </c>
-    </row>
-    <row r="102" spans="1:5">
+        <v>0.008040120723901183</v>
+      </c>
+      <c r="F101">
+        <v>-0.01256745405949099</v>
+      </c>
+      <c r="G101">
+        <v>0.02995382194327771</v>
+      </c>
+    </row>
+    <row r="102" spans="1:7">
       <c r="A102" s="1" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="B102">
-        <v>0.01388548343846864</v>
+        <v>0.1213851653120564</v>
       </c>
       <c r="C102">
-        <v>0.1123963788187738</v>
+        <v>-0.08474054961160397</v>
       </c>
       <c r="D102">
-        <v>-0.1116397910561787</v>
+        <v>-0.0004280961827276469</v>
       </c>
       <c r="E102">
-        <v>0.0252819204798032</v>
-      </c>
-    </row>
-    <row r="103" spans="1:5">
+        <v>0.03578204407380015</v>
+      </c>
+      <c r="F102">
+        <v>-0.05497122340115062</v>
+      </c>
+      <c r="G102">
+        <v>-0.009518576643506128</v>
+      </c>
+    </row>
+    <row r="103" spans="1:7">
       <c r="A103" s="1" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B103">
-        <v>0.001871717637516824</v>
+        <v>0.004463771925216222</v>
       </c>
       <c r="C103">
-        <v>0.01741520785190303</v>
+        <v>-0.004968351885348802</v>
       </c>
       <c r="D103">
-        <v>-0.02703191363963464</v>
+        <v>-0.0004458724343224783</v>
       </c>
       <c r="E103">
-        <v>-0.01139495577304354</v>
-      </c>
-    </row>
-    <row r="104" spans="1:5">
+        <v>-0.00194501121596549</v>
+      </c>
+      <c r="F103">
+        <v>-0.00906083691305914</v>
+      </c>
+      <c r="G103">
+        <v>0.01777251226883287</v>
+      </c>
+    </row>
+    <row r="104" spans="1:7">
       <c r="A104" s="1" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="B104">
-        <v>0.9846729840458436</v>
+        <v>0.0357622197940563</v>
       </c>
       <c r="C104">
-        <v>-0.1085455473426511</v>
+        <v>0.04158666696525325</v>
       </c>
       <c r="D104">
-        <v>-0.004549599092722985</v>
+        <v>-0.9869740625463922</v>
       </c>
       <c r="E104">
-        <v>-0.0265377907713584</v>
+        <v>0.03819464052883556</v>
+      </c>
+      <c r="F104">
+        <v>-0.04443407994094255</v>
+      </c>
+      <c r="G104">
+        <v>-0.007095922649072017</v>
       </c>
     </row>
   </sheetData>
